--- a/data/02_intermediate/sim_matrix.xlsx
+++ b/data/02_intermediate/sim_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,77 @@
           <t xml:space="preserve"> VB VP</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBZ RB VP</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TO NP VP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBZ VP</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB NP NP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBN PRT NP ADVP</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBN NP</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB PP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBD VP</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB NP CC IN NP PP</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr"/>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBZ VP CC S</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VP CC VP</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB SBAR , CC SBAR</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB ADVP PP</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -590,6 +661,51 @@
       <c r="S2" t="n">
         <v>0.7692307692307693</v>
       </c>
+      <c r="T2" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -651,6 +767,51 @@
       <c r="S3" t="n">
         <v>0.7272727272727273</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -712,6 +873,51 @@
       <c r="S4" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -773,6 +979,51 @@
       <c r="S5" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.3529411764705883</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -834,6 +1085,51 @@
       <c r="S6" t="n">
         <v>0.8</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -895,6 +1191,51 @@
       <c r="S7" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="T7" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.7368421052631579</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -956,6 +1297,51 @@
       <c r="S8" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="T8" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.631578947368421</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1017,6 +1403,51 @@
       <c r="S9" t="n">
         <v>0.6153846153846154</v>
       </c>
+      <c r="T9" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1078,6 +1509,51 @@
       <c r="S10" t="n">
         <v>0.8</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1139,6 +1615,51 @@
       <c r="S11" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="T11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.5882352941176471</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1200,6 +1721,51 @@
       <c r="S12" t="n">
         <v>0.9230769230769231</v>
       </c>
+      <c r="T12" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1261,6 +1827,51 @@
       <c r="S13" t="n">
         <v>0.5</v>
       </c>
+      <c r="T13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.3529411764705883</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1322,6 +1933,51 @@
       <c r="S14" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.5882352941176471</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1383,6 +2039,51 @@
       <c r="S15" t="n">
         <v>0.2222222222222222</v>
       </c>
+      <c r="T15" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1444,6 +2145,51 @@
       <c r="S16" t="n">
         <v>0.75</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1505,6 +2251,51 @@
       <c r="S17" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1566,6 +2357,51 @@
       <c r="S18" t="n">
         <v>0.5882352941176471</v>
       </c>
+      <c r="T18" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.5454545454545454</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1625,6 +2461,1637 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBZ RB VP</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TO NP VP</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBZ VP</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB NP NP</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBN PRT NP ADVP</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBN NP</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB PP</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBD VP</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB NP CC IN NP PP</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VBZ VP CC S</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VP CC VP</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB SBAR , CC SBAR</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VB ADVP PP</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="AH34" t="n">
         <v>1</v>
       </c>
     </row>
